--- a/hw/motorcontrol/pcb_parts.xlsx
+++ b/hw/motorcontrol/pcb_parts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15888" yWindow="0" windowWidth="12780" windowHeight="10116" activeTab="3"/>
+    <workbookView xWindow="16956" yWindow="0" windowWidth="12780" windowHeight="10116" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PINOUT" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="260">
   <si>
     <t>IMU</t>
   </si>
@@ -148,27 +148,6 @@
   </si>
   <si>
     <t>Item</t>
-  </si>
-  <si>
-    <t>Qty Needed</t>
-  </si>
-  <si>
-    <t>Qty to Buy</t>
-  </si>
-  <si>
-    <t>Price per Unit</t>
-  </si>
-  <si>
-    <t>Provider</t>
-  </si>
-  <si>
-    <t>Serial No.</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>Battery connector</t>
@@ -223,27 +202,6 @@
     <t>2x20 Pinhead 0.1" Female</t>
   </si>
   <si>
-    <t>Resistor 10k</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en/resistors/chip-resistor-surface-mount/52?k=&amp;pkeyword=&amp;pv3=1&amp;FV=fffc000a%2C40070%2C1c0002%2C142c09a7%2Cffe00034%2C80004&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=0&amp;page=1&amp;quantity=0&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
-  </si>
-  <si>
-    <t>1206 1% 1/4W</t>
-  </si>
-  <si>
-    <t>Resistor 1k</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en/resistors/chip-resistor-surface-mount/52?k=&amp;pkeyword=&amp;pv3=1&amp;FV=fffc000a%2C80004%2C1c0002%2C142c09a7%2Cffe00034%2C40936&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=0&amp;page=1&amp;quantity=0&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
-  </si>
-  <si>
-    <t>Resistor 0.51k</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en/resistors/chip-resistor-surface-mount/52?k=&amp;pkeyword=&amp;pv3=1&amp;FV=fffc000a%2C80004%2C1c0002%2C142c09a7%2Cffe00034%2C40242&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=0&amp;page=1&amp;quantity=0&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
-  </si>
-  <si>
     <t>Capacitor 1 nf</t>
   </si>
   <si>
@@ -265,15 +223,6 @@
     <t>https://www.digikey.com/product-detail/en/kemet/C1206C224J5RACTU/399-1252-1-ND/411527</t>
   </si>
   <si>
-    <t>Capacitor 1000 uf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/nichicon/UVZ1H102MHD1TO/493-13465-1-ND/4342176</t>
-  </si>
-  <si>
-    <t>20% 50V</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/EEU-EB1H101SB/P19608CT-ND/6109506</t>
   </si>
   <si>
@@ -298,57 +247,9 @@
     <t>1206 10% 25V</t>
   </si>
   <si>
-    <t>diode 1</t>
-  </si>
-  <si>
-    <t>diode 2</t>
-  </si>
-  <si>
-    <t>IPD90P03P4</t>
-  </si>
-  <si>
-    <t>PMOS power protection</t>
-  </si>
-  <si>
     <t>Parts list</t>
   </si>
   <si>
-    <t>TPA X2</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/molex-llc/1722642003/WM11661-ND/5291290</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/molex-llc/1722561103/WM11609-ND/5291234</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/molex-llc/1723101103/WM11588-ND/5344285</t>
-  </si>
-  <si>
-    <t>board connect to motor</t>
-  </si>
-  <si>
-    <t>Female header x2</t>
-  </si>
-  <si>
-    <t>Male header x2</t>
-  </si>
-  <si>
-    <t>resistor array</t>
-  </si>
-  <si>
-    <t>10k x4</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/CRA06S08310K0JTA/CRA6S810KCT-ND/1285853</t>
-  </si>
-  <si>
-    <t>1000 uF</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/EEE-FK1H102AM/PCE4848CT-ND/1879879</t>
-  </si>
-  <si>
     <t>test point</t>
   </si>
   <si>
@@ -499,12 +400,6 @@
     <t>http://www.atmel.com/Images/Atmel-7766-8-bit-AVR-ATmega16U4-32U4_Datasheet.pdf</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/analog-devices-inc/ADG3304BRUZ-REEL7/ADG3304BRUZ-REEL7CT-ND/3314122</t>
-  </si>
-  <si>
-    <t>analog level transfer</t>
-  </si>
-  <si>
     <t>PE6</t>
   </si>
   <si>
@@ -934,9 +829,6 @@
     <t xml:space="preserve">BATTERY </t>
   </si>
   <si>
-    <t>1000u capacitor smd</t>
-  </si>
-  <si>
     <t>RPI EEPROM</t>
   </si>
   <si>
@@ -944,9 +836,6 @@
   </si>
   <si>
     <t>http://www.st.com/content/ccc/resource/technical/document/datasheet/1e/3f/2a/d6/25/eb/48/46/DM00103319.pdf/files/DM00103319.pdf/jcr:content/translations/en.DM00103319.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/infineon-technologies/IPD90P03P4L04ATMA1/IPD90P03P4L04ATMA1CT-ND/2269941</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1275,7 @@
   <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1402,157 +1291,157 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="5" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="8" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="8" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="8" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="AF4" s="8"/>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="8" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="AF5" s="8"/>
       <c r="AH5" s="8"/>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="8" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="AF6" s="8"/>
       <c r="AH6" s="8"/>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="8" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="AF7" s="8"/>
       <c r="AH7" s="8"/>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="16" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="AF8" s="8"/>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="8" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="8" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
@@ -1560,25 +1449,25 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="8" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="AE11" s="8"/>
       <c r="AF11" s="8"/>
@@ -1586,25 +1475,25 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="8" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
@@ -1612,28 +1501,28 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="8" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="AE13" s="8"/>
       <c r="AF13" s="8"/>
@@ -1641,29 +1530,29 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="8" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="AF14" s="8"/>
       <c r="AH14" s="8"/>
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="8" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
@@ -1672,29 +1561,29 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="8" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="8" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="AE17" s="8"/>
       <c r="AF17" s="8"/>
@@ -1702,22 +1591,22 @@
     </row>
     <row r="18" spans="1:34">
       <c r="A18" s="8" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:34">
       <c r="A19" s="8" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>0</v>
@@ -1726,16 +1615,16 @@
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
@@ -1743,7 +1632,7 @@
     </row>
     <row r="20" spans="1:34">
       <c r="A20" s="8" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>0</v>
@@ -1752,10 +1641,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>2</v>
@@ -1766,22 +1655,22 @@
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="8" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="AE21" s="8"/>
       <c r="AF21" s="8"/>
@@ -1789,41 +1678,41 @@
     </row>
     <row r="22" spans="1:34">
       <c r="A22" s="8" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="AF22" s="8"/>
       <c r="AH22" s="8"/>
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="8" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="AE23" s="8"/>
       <c r="AF23" s="8"/>
@@ -1831,385 +1720,385 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="8" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="8" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:34">
       <c r="A26" s="8" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:34">
       <c r="A27" s="8" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:34">
       <c r="A28" s="8" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:34">
       <c r="A29" s="8" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:34">
       <c r="A30" s="8" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:34">
       <c r="A31" s="8" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:34">
       <c r="A32" s="8" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>214</v>
-      </c>
       <c r="G33" s="14" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="8" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2222,7 +2111,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2291,24 +2180,24 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B11" s="17"/>
       <c r="D11" s="15" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2316,18 +2205,18 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2337,13 +2226,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -2351,13 +2240,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2412,12 +2301,12 @@
         <v>35</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
@@ -2434,10 +2323,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2459,12 +2348,12 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="5" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2481,7 +2370,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2496,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2509,7 +2398,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2530,7 +2419,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2545,40 +2434,40 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="8" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="8" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="8" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" s="8" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2586,10 +2475,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2606,7 +2495,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="8" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2615,7 +2504,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="B23" s="8" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2624,7 +2513,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="8" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2633,7 +2522,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="8" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2642,10 +2531,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="8" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2653,7 +2542,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="8" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2672,22 +2561,22 @@
         <v>18</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="8" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" s="8" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" s="8" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2734,59 +2623,59 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" s="8" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="B49" s="8" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" s="8" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="B51" s="8" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="B52" s="8" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="B53" s="8" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="B54" s="11" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5"/>
       <c r="B58" s="11" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2794,12 +2683,12 @@
         <v>39</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="B61" s="11" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2813,15 +2702,15 @@
     <row r="64" spans="1:2">
       <c r="A64" s="5"/>
       <c r="B64" s="11" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2829,10 +2718,10 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2840,10 +2729,10 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2853,411 +2742,272 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8:M51"/>
+  <dimension ref="A2:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" customWidth="1"/>
     <col min="6" max="6" width="33.6640625" customWidth="1"/>
     <col min="7" max="7" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="6:13">
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="6:13">
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="1" t="s">
+    <row r="2" spans="1:9">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="6:13">
-      <c r="F10" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="2">
-        <v>7</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="6:13">
-      <c r="F11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="6:13">
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="2">
-        <v>3</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="6:13">
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="2">
-        <v>3</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="6:13">
-      <c r="F14" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="2">
-        <v>7</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="6:13">
-      <c r="F15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="2">
-        <v>6</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="6:13">
-      <c r="F16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="5:13">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="5:13">
-      <c r="F18" s="3" t="s">
-        <v>73</v>
-      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="5:13">
-      <c r="F19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="5:13">
-      <c r="F20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="5:13">
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="5:13">
-      <c r="F22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="5:13">
-      <c r="F23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="5:13">
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="5:13">
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="5:13">
-      <c r="F26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="30" spans="5:13">
-      <c r="E30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="5:13">
-      <c r="F31" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="5:13">
-      <c r="F32" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" t="s">
-        <v>87</v>
-      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="36" spans="5:7">
-      <c r="E36" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>94</v>
-      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="38" spans="5:7">
-      <c r="E38" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="5:7">
       <c r="G39" s="7"/>
     </row>
-    <row r="42" spans="5:7">
-      <c r="E42" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7">
-      <c r="E47" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7">
-      <c r="F48" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7">
-      <c r="E51" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G51" t="s">
-        <v>147</v>
-      </c>
+    <row r="51" spans="5:5">
+      <c r="E51" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1"/>
-    <hyperlink ref="G26" r:id="rId2"/>
-    <hyperlink ref="G36" r:id="rId3"/>
-    <hyperlink ref="G38" r:id="rId4"/>
-    <hyperlink ref="F42" r:id="rId5"/>
-    <hyperlink ref="G31" r:id="rId6"/>
+    <hyperlink ref="B16" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hw/motorcontrol/pcb_parts.xlsx
+++ b/hw/motorcontrol/pcb_parts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16956" yWindow="0" windowWidth="12780" windowHeight="10116" activeTab="3"/>
+    <workbookView xWindow="18024" yWindow="0" windowWidth="12780" windowHeight="10116" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PINOUT" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="256">
   <si>
     <t>IMU</t>
   </si>
@@ -250,21 +250,6 @@
     <t>Parts list</t>
   </si>
   <si>
-    <t>test point</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/keystone-electronics/5002/36-5002-ND/255328</t>
-  </si>
-  <si>
-    <t>arduino</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en/crystals-oscillators-resonators/crystals/171?k=&amp;pkeyword=&amp;pv46=17229&amp;FV=1c0002%2C402e04%2C8c000a%2C1140003%2C22c0011%2C1f140000%2Cffe000ab&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=-1000009&amp;page=1&amp;stock=1&amp;quantity=0&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
-  </si>
-  <si>
     <t>A0</t>
   </si>
   <si>
@@ -836,6 +821,9 @@
   </si>
   <si>
     <t>http://www.st.com/content/ccc/resource/technical/document/datasheet/1e/3f/2a/d6/25/eb/48/46/DM00103319.pdf/files/DM00103319.pdf/jcr:content/translations/en.DM00103319.pdf</t>
+  </si>
+  <si>
+    <t>http://www.abracon.com/Resonators/abm3b.pdf</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1263,7 @@
   <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1291,157 +1279,157 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AF4" s="8"/>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AF5" s="8"/>
       <c r="AH5" s="8"/>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AF6" s="8"/>
       <c r="AH6" s="8"/>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AF7" s="8"/>
       <c r="AH7" s="8"/>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AF8" s="8"/>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
@@ -1449,25 +1437,25 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AE11" s="8"/>
       <c r="AF11" s="8"/>
@@ -1475,25 +1463,25 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
@@ -1501,28 +1489,28 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AE13" s="8"/>
       <c r="AF13" s="8"/>
@@ -1530,29 +1518,29 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AF14" s="8"/>
       <c r="AH14" s="8"/>
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
@@ -1561,29 +1549,29 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AE17" s="8"/>
       <c r="AF17" s="8"/>
@@ -1591,22 +1579,22 @@
     </row>
     <row r="18" spans="1:34">
       <c r="A18" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:34">
       <c r="A19" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>0</v>
@@ -1615,16 +1603,16 @@
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
@@ -1632,7 +1620,7 @@
     </row>
     <row r="20" spans="1:34">
       <c r="A20" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>0</v>
@@ -1641,10 +1629,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>2</v>
@@ -1655,22 +1643,22 @@
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AE21" s="8"/>
       <c r="AF21" s="8"/>
@@ -1678,41 +1666,41 @@
     </row>
     <row r="22" spans="1:34">
       <c r="A22" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AF22" s="8"/>
       <c r="AH22" s="8"/>
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AE23" s="8"/>
       <c r="AF23" s="8"/>
@@ -1720,385 +1708,385 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:34">
       <c r="A26" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:34">
       <c r="A27" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:34">
       <c r="A28" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:34">
       <c r="A29" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:34">
       <c r="A30" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:34">
       <c r="A31" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:34">
       <c r="A32" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2111,7 +2099,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2180,24 +2168,24 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="D11" s="15" t="s">
-        <v>249</v>
+      <c r="D11" s="16" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2205,18 +2193,18 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2226,13 +2214,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -2240,13 +2228,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D19" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2301,12 +2289,12 @@
         <v>35</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
@@ -2323,10 +2311,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2348,12 +2336,12 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2444,30 +2432,30 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2475,10 +2463,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2495,7 +2483,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2504,7 +2492,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="B23" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2513,7 +2501,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2522,7 +2510,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2531,10 +2519,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2542,7 +2530,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2561,22 +2549,22 @@
         <v>18</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2623,59 +2611,59 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="B49" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="B51" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="B52" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="B53" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="B54" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5"/>
       <c r="B58" s="11" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2683,12 +2671,12 @@
         <v>39</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="B61" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2702,7 +2690,7 @@
     <row r="64" spans="1:2">
       <c r="A64" s="5"/>
       <c r="B64" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2718,10 +2706,10 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2729,10 +2717,10 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +2733,7 @@
   <dimension ref="A2:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2943,12 +2931,8 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2965,9 +2949,7 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="A18" s="8"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2976,12 +2958,7 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="B19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
+      <c r="B19" s="8"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -3006,9 +2983,6 @@
       <c r="E51" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hw/motorcontrol/pcb_parts.xlsx
+++ b/hw/motorcontrol/pcb_parts.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18024" yWindow="0" windowWidth="12780" windowHeight="10116" activeTab="3"/>
+    <workbookView xWindow="19092" yWindow="0" windowWidth="12780" windowHeight="10116" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PINOUT" sheetId="7" r:id="rId1"/>
     <sheet name="Major components" sheetId="3" r:id="rId2"/>
     <sheet name="Part list" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="244">
   <si>
     <t>IMU</t>
   </si>
@@ -114,9 +113,6 @@
     <t>10V 500mW SOD-80C</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/nexperia-usa-inc/BZV55-C10,115/1727-4959-1-ND/2531540</t>
-  </si>
-  <si>
     <t>D33V</t>
   </si>
   <si>
@@ -124,9 +120,6 @@
   </si>
   <si>
     <t>33V 1W MELF MLL41</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/vishay-semiconductor-diodes-division/ZM4752A-GS18/ZM4752A-GS18CT-ND/3104542</t>
   </si>
   <si>
     <t>Motor Controller</t>
@@ -202,51 +195,6 @@
     <t>2x20 Pinhead 0.1" Female</t>
   </si>
   <si>
-    <t>Capacitor 1 nf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/kemet/C1206C102J5RACTU/399-8131-1-ND/3471854</t>
-  </si>
-  <si>
-    <t>1206 5% 50V</t>
-  </si>
-  <si>
-    <t>Capacitor 100 nf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/kemet/C1206C104J5RACTU/399-1250-1-ND/411525</t>
-  </si>
-  <si>
-    <t>Capacitor 220 nf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/kemet/C1206C224J5RACTU/399-1252-1-ND/411527</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/EEU-EB1H101SB/P19608CT-ND/6109506</t>
-  </si>
-  <si>
-    <t>Capacitor 22 uf</t>
-  </si>
-  <si>
-    <t>Capacitor 47 nf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/kemet/C1206C473K5RACTU/399-1246-1-ND/411521</t>
-  </si>
-  <si>
-    <t>1206 10% 50V</t>
-  </si>
-  <si>
-    <t>Capacitor 470 nf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/kemet/C1206C474K3RACTU/399-8201-1-ND/3471924</t>
-  </si>
-  <si>
-    <t>1206 10% 25V</t>
-  </si>
-  <si>
     <t>Parts list</t>
   </si>
   <si>
@@ -304,15 +252,9 @@
     <t>D13</t>
   </si>
   <si>
-    <t>R x2</t>
-  </si>
-  <si>
     <t>Hall sensors x3</t>
   </si>
   <si>
-    <t>R750 x3</t>
-  </si>
-  <si>
     <t>3 BTN chips in total</t>
   </si>
   <si>
@@ -370,9 +312,6 @@
     <t>R1K</t>
   </si>
   <si>
-    <t>R3.9k</t>
-  </si>
-  <si>
     <t>SERVO MOTOR</t>
   </si>
   <si>
@@ -775,9 +714,6 @@
     <t>BSS138BKS</t>
   </si>
   <si>
-    <t>R10K x4</t>
-  </si>
-  <si>
     <t>SDA,SCL ARDUINO-IMU</t>
   </si>
   <si>
@@ -790,9 +726,6 @@
     <t>RPI-ARDUINO</t>
   </si>
   <si>
-    <t>????</t>
-  </si>
-  <si>
     <t>BSS138BKS X1</t>
   </si>
   <si>
@@ -802,9 +735,6 @@
     <t>connector x3</t>
   </si>
   <si>
-    <t>C100n x2</t>
-  </si>
-  <si>
     <t>C0.1u x2</t>
   </si>
   <si>
@@ -824,13 +754,46 @@
   </si>
   <si>
     <t>http://www.abracon.com/Resonators/abm3b.pdf</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/85786/zm4728a.pdf</t>
+  </si>
+  <si>
+    <t>http://assets.nexperia.com/documents/data-sheet/BZV55_SER.pdf</t>
+  </si>
+  <si>
+    <t>R10k x3</t>
+  </si>
+  <si>
+    <t>C1u x3</t>
+  </si>
+  <si>
+    <t>R3.9k x2</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>R10k</t>
+  </si>
+  <si>
+    <t>R10K x1</t>
+  </si>
+  <si>
+    <t>C1u x1</t>
+  </si>
+  <si>
+    <t>C0.1u x6</t>
+  </si>
+  <si>
+    <t>R3.9K x4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,21 +803,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -950,39 +899,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -1278,815 +1222,815 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>233</v>
+      <c r="A1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>227</v>
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>208</v>
+      <c r="D2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" s="8" t="s">
-        <v>217</v>
+      <c r="A3" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF3" s="8"/>
+      <c r="D3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF3" s="4"/>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" s="8" t="s">
-        <v>203</v>
+      <c r="A4" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF4" s="8"/>
+      <c r="D4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF4" s="4"/>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="8" t="s">
-        <v>203</v>
+      <c r="A5" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF5" s="8"/>
-      <c r="AH5" s="8"/>
+      <c r="D5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF5" s="4"/>
+      <c r="AH5" s="4"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="8" t="s">
-        <v>123</v>
+      <c r="A6" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF6" s="8"/>
-      <c r="AH6" s="8"/>
+      <c r="D6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF6" s="4"/>
+      <c r="AH6" s="4"/>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>218</v>
+      <c r="A7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF7" s="8"/>
-      <c r="AH7" s="8"/>
+      <c r="D7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF7" s="4"/>
+      <c r="AH7" s="4"/>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="16" t="s">
-        <v>217</v>
+      <c r="A8" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF8" s="8"/>
+      <c r="D8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF8" s="4"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>172</v>
+      <c r="A9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>171</v>
+      <c r="D9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:34">
-      <c r="A10" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>223</v>
+      <c r="A10" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AH10" s="8"/>
+      <c r="D10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AH10" s="4"/>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>224</v>
+      <c r="A11" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AH11" s="8"/>
+      <c r="D11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AH11" s="4"/>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>225</v>
+      <c r="A12" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AH12" s="8"/>
+      <c r="D12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AH12" s="4"/>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>228</v>
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AH13" s="8"/>
+      <c r="D13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AH13" s="4"/>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>222</v>
+      <c r="A14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF14" s="8"/>
-      <c r="AH14" s="8"/>
+      <c r="D14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF14" s="4"/>
+      <c r="AH14" s="4"/>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" s="8" t="s">
-        <v>217</v>
+      <c r="A15" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
+      <c r="D15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" s="8" t="s">
-        <v>123</v>
+      <c r="A16" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
+      <c r="D16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>226</v>
+      <c r="A17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AH17" s="8"/>
+      <c r="D17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AH17" s="4"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>226</v>
+      <c r="A18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF18" s="8"/>
+      <c r="D18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF18" s="4"/>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="14" t="s">
+      <c r="D19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AH19" s="8"/>
+      <c r="G19" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F20" s="14" t="s">
+      <c r="D20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AH20" s="8"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AH20" s="4"/>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>204</v>
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AH21" s="8"/>
+      <c r="D21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AH21" s="4"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>205</v>
+      <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF22" s="8"/>
-      <c r="AH22" s="8"/>
+      <c r="D22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF22" s="4"/>
+      <c r="AH22" s="4"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="8" t="s">
-        <v>203</v>
+      <c r="A23" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AH23" s="8"/>
+      <c r="D23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AH23" s="4"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="8" t="s">
-        <v>123</v>
+      <c r="A24" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>123</v>
+      <c r="D24" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="8" t="s">
-        <v>217</v>
+      <c r="A25" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>131</v>
+      <c r="D25" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>178</v>
+      <c r="A26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>193</v>
+      <c r="D26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>203</v>
+      <c r="A27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>189</v>
+      <c r="D27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>172</v>
+      <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>182</v>
+      <c r="D28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>172</v>
+      <c r="A29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>161</v>
+      <c r="D29" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>229</v>
+      <c r="A30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>159</v>
+      <c r="F30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>230</v>
+      <c r="A31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>155</v>
+      <c r="D31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>178</v>
+      <c r="A32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>176</v>
+      <c r="D32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>179</v>
+      <c r="A33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>175</v>
+      <c r="D33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="8" t="s">
-        <v>123</v>
+      <c r="A34" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>206</v>
+      <c r="D34" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="8" t="s">
-        <v>217</v>
+      <c r="A35" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>122</v>
+      <c r="D35" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="8" t="s">
-        <v>123</v>
+      <c r="A36" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>123</v>
+      <c r="D36" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>172</v>
+      <c r="A37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>210</v>
+      <c r="D37" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>172</v>
+      <c r="A38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>212</v>
+      <c r="D38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>186</v>
+      <c r="A39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>213</v>
+      <c r="D39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>185</v>
+      <c r="A40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>214</v>
+      <c r="D40" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>184</v>
+      <c r="A41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>215</v>
+      <c r="D41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>172</v>
+      <c r="A42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>216</v>
+      <c r="D42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>218</v>
+      <c r="A43" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>147</v>
+      <c r="D43" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="8" t="s">
-        <v>123</v>
+      <c r="A44" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>123</v>
+      <c r="D44" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="8" t="s">
-        <v>217</v>
+      <c r="A45" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>131</v>
+      <c r="D45" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2098,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2112,18 +2056,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2139,10 +2083,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
@@ -2153,7 +2097,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
@@ -2167,78 +2111,78 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>93</v>
+      <c r="A9" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
-        <v>94</v>
+      <c r="A10" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="D11" s="16" t="s">
-        <v>255</v>
+      <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="D11" s="12" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>99</v>
+      <c r="A13" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>100</v>
+      <c r="A14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
-        <v>238</v>
+      <c r="A17" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>240</v>
+      <c r="C17" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>243</v>
+      <c r="A19" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2263,89 +2207,89 @@
       <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>30</v>
+      <c r="D23" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5" t="s">
+      <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
+      <c r="A41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2355,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2372,615 +2316,459 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>63</v>
+      <c r="A1" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17"/>
+      <c r="B20" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="17"/>
+      <c r="B21" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="17"/>
+      <c r="B24" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17"/>
+      <c r="B25" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="17"/>
+      <c r="B26" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="17"/>
+      <c r="B27" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="17"/>
+      <c r="B28" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="17"/>
+      <c r="B29" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="17"/>
+      <c r="B30" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="18"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="17"/>
+      <c r="B35" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="17"/>
+      <c r="B37" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="17"/>
+      <c r="B38" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="14"/>
+      <c r="B42" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="14"/>
+      <c r="B46" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="17"/>
+      <c r="B47" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
+      <c r="B52" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="B18" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="8" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="14"/>
+      <c r="B53" s="17"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41" t="s">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="B48" s="8" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="17"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="17"/>
+      <c r="B72" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="17"/>
+      <c r="B73" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="17"/>
+      <c r="B74" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="17"/>
+      <c r="B75" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="17"/>
+      <c r="B76" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="17"/>
+      <c r="B77" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="17"/>
+      <c r="B78" s="15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="B49" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="B50" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="B51" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="B52" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="B53" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="B54" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="B61" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="5"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="5"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="8"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="8"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="36" spans="5:7">
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="38" spans="5:7">
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="5:7">
-      <c r="G39" s="7"/>
-    </row>
-    <row r="51" spans="5:5">
-      <c r="E51" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
